--- a/haversine/distance_csv/distance.xlsx
+++ b/haversine/distance_csv/distance.xlsx
@@ -889,14 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:O29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/haversine/distance_csv/distance.xlsx
+++ b/haversine/distance_csv/distance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7980"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -43,10 +43,13 @@
     <t>U Htaung Bo</t>
   </si>
   <si>
+    <t>Bahan 3 Lan</t>
+  </si>
+  <si>
     <t>Taung Phat Mote</t>
   </si>
   <si>
-    <t>A shae Phat Mote</t>
+    <t>A Shae Phat Mote</t>
   </si>
   <si>
     <t>Pan Soe Tan</t>
@@ -58,7 +61,43 @@
     <t>Pan Soe Tan2</t>
   </si>
   <si>
+    <t>Railway</t>
+  </si>
+  <si>
     <t>Kan Yeik Thar</t>
+  </si>
+  <si>
+    <t>Thein Gyi Zay</t>
+  </si>
+  <si>
+    <t>Bo Gyoke Zay</t>
+  </si>
+  <si>
+    <t>Phyar Lan</t>
+  </si>
+  <si>
+    <t>Phone Gyi Lan</t>
+  </si>
+  <si>
+    <t>San Pya</t>
+  </si>
+  <si>
+    <t>Tha Yet Taw</t>
+  </si>
+  <si>
+    <t>Pegu Club</t>
+  </si>
+  <si>
+    <t>Myaeni Gone</t>
+  </si>
+  <si>
+    <t>U Wisara</t>
+  </si>
+  <si>
+    <t>Shwedagon J</t>
+  </si>
+  <si>
+    <t>U Wisara Awine</t>
   </si>
 </sst>
 </file>
@@ -887,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +978,47 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -969,25 +1047,64 @@
         <v>2.3558540203124898</v>
       </c>
       <c r="J3">
+        <v>2.7596882597855701</v>
+      </c>
+      <c r="K3">
         <v>2.50708235067109</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.8193476933689698</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.30894449596674101</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.42342185529804699</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.64655195519009601</v>
       </c>
-      <c r="O3">
+      <c r="P3">
+        <v>1.0816385838017299</v>
+      </c>
+      <c r="Q3">
         <v>2.1600412504712398</v>
       </c>
+      <c r="R3">
+        <v>0.60775815196383898</v>
+      </c>
+      <c r="S3">
+        <v>0.82291561062034302</v>
+      </c>
+      <c r="T3">
+        <v>1.03130041432297</v>
+      </c>
+      <c r="U3">
+        <v>1.49313929716576</v>
+      </c>
+      <c r="V3">
+        <v>1.5163189908692201</v>
+      </c>
+      <c r="W3">
+        <v>1.61356389227742</v>
+      </c>
+      <c r="X3">
+        <v>2.3719015965131498</v>
+      </c>
+      <c r="Y3">
+        <v>3.6069966202652601</v>
+      </c>
+      <c r="Z3">
+        <v>1.4968397834398499</v>
+      </c>
+      <c r="AA3">
+        <v>1.4325153172709799</v>
+      </c>
+      <c r="AB3">
+        <v>2.6422120510390701</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1016,25 +1133,64 @@
         <v>2.07915599009812</v>
       </c>
       <c r="J5">
+        <v>2.4819309897817101</v>
+      </c>
+      <c r="K5">
         <v>2.24906507298516</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.5529482181487202</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.40809342087926098</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.31938656449598402</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.43150568178276699</v>
       </c>
-      <c r="O5">
+      <c r="P5">
+        <v>0.82368623379690298</v>
+      </c>
+      <c r="Q5">
         <v>1.88739538571954</v>
       </c>
+      <c r="R5">
+        <v>0.654290156031621</v>
+      </c>
+      <c r="S5">
+        <v>0.65802008776554299</v>
+      </c>
+      <c r="T5">
+        <v>0.81536932996387301</v>
+      </c>
+      <c r="U5">
+        <v>1.5024165341515101</v>
+      </c>
+      <c r="V5">
+        <v>1.47727854412587</v>
+      </c>
+      <c r="W5">
+        <v>1.51983803023063</v>
+      </c>
+      <c r="X5">
+        <v>2.2008707096865501</v>
+      </c>
+      <c r="Y5">
+        <v>3.3891682071710001</v>
+      </c>
+      <c r="Z5">
+        <v>1.2749100980819601</v>
+      </c>
+      <c r="AA5">
+        <v>1.1831645462670599</v>
+      </c>
+      <c r="AB5">
+        <v>2.40263429990453</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1063,25 +1219,64 @@
         <v>1.81517719566172</v>
       </c>
       <c r="J7">
+        <v>2.2158753748188902</v>
+      </c>
+      <c r="K7">
         <v>2.0111048065284698</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2.30335660606079</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.61133775463041595</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.408090471268854</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.31957595425572699</v>
       </c>
-      <c r="O7">
+      <c r="P7">
+        <v>0.58708836480694104</v>
+      </c>
+      <c r="Q7">
         <v>1.6248127041562901</v>
       </c>
+      <c r="R7">
+        <v>0.80181721015255603</v>
+      </c>
+      <c r="S7">
+        <v>0.59711278932803302</v>
+      </c>
+      <c r="T7">
+        <v>0.66316058873639405</v>
+      </c>
+      <c r="U7">
+        <v>1.5688172566979599</v>
+      </c>
+      <c r="V7">
+        <v>1.49902998748738</v>
+      </c>
+      <c r="W7">
+        <v>1.48484784714244</v>
+      </c>
+      <c r="X7">
+        <v>2.06805571271931</v>
+      </c>
+      <c r="Y7">
+        <v>3.19612438207538</v>
+      </c>
+      <c r="Z7">
+        <v>1.0945617743093701</v>
+      </c>
+      <c r="AA7">
+        <v>0.96514415732966996</v>
+      </c>
+      <c r="AB7">
+        <v>2.1874827306426501</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1110,25 +1305,64 @@
         <v>1.3784970693080101</v>
       </c>
       <c r="J9">
+        <v>1.7734073259551799</v>
+      </c>
+      <c r="K9">
         <v>1.63660352369088</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.89946822127341</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.0169119240320501</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.76750617246888497</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.52622915905828005</v>
       </c>
-      <c r="O9">
+      <c r="P9">
+        <v>0.32111296022553298</v>
+      </c>
+      <c r="Q9">
         <v>1.19054208331887</v>
       </c>
+      <c r="R9">
+        <v>1.1499941677679599</v>
+      </c>
+      <c r="S9">
+        <v>0.74197814850087696</v>
+      </c>
+      <c r="T9">
+        <v>0.62131329154396897</v>
+      </c>
+      <c r="U9">
+        <v>1.7688683425614899</v>
+      </c>
+      <c r="V9">
+        <v>1.63789623237402</v>
+      </c>
+      <c r="W9">
+        <v>1.5353235075551099</v>
+      </c>
+      <c r="X9">
+        <v>1.9136098505703301</v>
+      </c>
+      <c r="Y9">
+        <v>2.9032937368817699</v>
+      </c>
+      <c r="Z9">
+        <v>0.89943583015838902</v>
+      </c>
+      <c r="AA9">
+        <v>0.68716920169865803</v>
+      </c>
+      <c r="AB9">
+        <v>1.8615686897558701</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1157,25 +1391,64 @@
         <v>1.05656634139047</v>
       </c>
       <c r="J11">
+        <v>1.4733214921640601</v>
+      </c>
+      <c r="K11">
         <v>1.23998513248855</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.5195649145513801</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.3892344316607199</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.1534082869364799</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.92571463767628204</v>
       </c>
-      <c r="O11">
+      <c r="P11">
+        <v>0.64346670513368298</v>
+      </c>
+      <c r="Q11">
         <v>1.04402230725486</v>
       </c>
+      <c r="R11">
+        <v>1.31058683042372</v>
+      </c>
+      <c r="S11">
+        <v>0.79363968761216297</v>
+      </c>
+      <c r="T11">
+        <v>0.55146589120612499</v>
+      </c>
+      <c r="U11">
+        <v>1.73789686642144</v>
+      </c>
+      <c r="V11">
+        <v>1.55749870277063</v>
+      </c>
+      <c r="W11">
+        <v>1.38303047744075</v>
+      </c>
+      <c r="X11">
+        <v>1.58567010864497</v>
+      </c>
+      <c r="Y11">
+        <v>2.5064068650488398</v>
+      </c>
+      <c r="Z11">
+        <v>0.59781721798006804</v>
+      </c>
+      <c r="AA11">
+        <v>0.341387632585814</v>
+      </c>
+      <c r="AB11">
+        <v>1.4611278786820401</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1204,25 +1477,64 @@
         <v>1.20259312637338</v>
       </c>
       <c r="J13">
+        <v>1.5837059693539299</v>
+      </c>
+      <c r="K13">
         <v>1.52927184305922</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.7610641144441299</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.1941422624276099</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.93396520643761205</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.66861851954181595</v>
       </c>
-      <c r="O13">
+      <c r="P13">
+        <v>0.28752898231080398</v>
+      </c>
+      <c r="Q13">
         <v>0.97418427829152898</v>
       </c>
+      <c r="R13">
+        <v>1.36433159410481</v>
+      </c>
+      <c r="S13">
+        <v>0.93150939464737803</v>
+      </c>
+      <c r="T13">
+        <v>0.76818935202648497</v>
+      </c>
+      <c r="U13">
+        <v>1.94834498025023</v>
+      </c>
+      <c r="V13">
+        <v>1.8008771355561499</v>
+      </c>
+      <c r="W13">
+        <v>1.67011313984552</v>
+      </c>
+      <c r="X13">
+        <v>1.94897709708948</v>
+      </c>
+      <c r="Y13">
+        <v>2.84517343005197</v>
+      </c>
+      <c r="Z13">
+        <v>0.949101159923191</v>
+      </c>
+      <c r="AA13">
+        <v>0.70269947889839601</v>
+      </c>
+      <c r="AB13">
+        <v>1.7905512451952099</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1251,25 +1563,64 @@
         <v>0.75799661575139299</v>
       </c>
       <c r="J15">
+        <v>1.1687593451716001</v>
+      </c>
+      <c r="K15">
         <v>1.04677371030011</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.2765054591727301</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.64698482735201</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.39682139472515</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.1442040419945501</v>
       </c>
-      <c r="O15">
+      <c r="P15">
+        <v>0.76335459135977202</v>
+      </c>
+      <c r="Q15">
         <v>0.76896334617315498</v>
       </c>
+      <c r="R15">
+        <v>1.61966979282958</v>
+      </c>
+      <c r="S15">
+        <v>1.0978260217678699</v>
+      </c>
+      <c r="T15">
+        <v>0.84318867298000999</v>
+      </c>
+      <c r="U15">
+        <v>2.00605833218619</v>
+      </c>
+      <c r="V15">
+        <v>1.8086813088915299</v>
+      </c>
+      <c r="W15">
+        <v>1.60199566133848</v>
+      </c>
+      <c r="X15">
+        <v>1.64002083536344</v>
+      </c>
+      <c r="Y15">
+        <v>2.3899121836519899</v>
+      </c>
+      <c r="Z15">
+        <v>0.75407346996917801</v>
+      </c>
+      <c r="AA15">
+        <v>0.49965082568737201</v>
+      </c>
+      <c r="AB15">
+        <v>1.33108581921074</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1298,303 +1649,1694 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0.42496962758582502</v>
+      </c>
+      <c r="K17">
         <v>0.67064610932740099</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.66412251177206105</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2.3926496487401101</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.1356227373492902</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.8707546538658599</v>
       </c>
-      <c r="O17">
+      <c r="P17">
+        <v>1.43848718843791</v>
+      </c>
+      <c r="Q17">
         <v>0.64624847278532505</v>
       </c>
+      <c r="R17">
+        <v>2.3461559172925899</v>
+      </c>
+      <c r="S17">
+        <v>1.8068342472397301</v>
+      </c>
+      <c r="T17">
+        <v>1.5333436406830201</v>
+      </c>
+      <c r="U17">
+        <v>2.5936824145437201</v>
+      </c>
+      <c r="V17">
+        <v>2.3627006589146302</v>
+      </c>
+      <c r="W17">
+        <v>2.0969446330285999</v>
+      </c>
+      <c r="X17">
+        <v>1.7767593382218001</v>
+      </c>
+      <c r="Y17">
+        <v>2.0301061961157001</v>
+      </c>
+      <c r="Z17">
+        <v>1.2621623529626</v>
+      </c>
+      <c r="AA17">
+        <v>1.0956246626255599</v>
+      </c>
+      <c r="AB17">
+        <v>1.0650410187113799</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19">
-        <v>2.50708235067109</v>
+        <v>2.7596882597855701</v>
       </c>
       <c r="C19">
-        <v>2.24906507298516</v>
+        <v>2.4819309897817101</v>
       </c>
       <c r="D19">
-        <v>2.0111048065284698</v>
+        <v>2.2158753748188902</v>
       </c>
       <c r="E19">
-        <v>1.63660352369088</v>
+        <v>1.7734073259551799</v>
       </c>
       <c r="F19">
-        <v>1.23998513248855</v>
+        <v>1.4733214921640601</v>
       </c>
       <c r="G19">
-        <v>1.52927184305922</v>
+        <v>1.5837059693539299</v>
       </c>
       <c r="H19">
-        <v>1.04677371030011</v>
+        <v>1.1687593451716001</v>
       </c>
       <c r="I19">
-        <v>0.67064610932740099</v>
+        <v>0.42496962758582502</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.38517373930953003</v>
+        <v>0.87928195702033896</v>
       </c>
       <c r="L19">
-        <v>2.6218890067899201</v>
+        <v>0.66148579510254601</v>
       </c>
       <c r="M19">
-        <v>2.3926301988876602</v>
+        <v>2.7777181313430699</v>
       </c>
       <c r="N19">
-        <v>2.1628180587041101</v>
+        <v>2.5159440461831699</v>
       </c>
       <c r="O19">
-        <v>1.29664153090953</v>
+        <v>2.2445061263089499</v>
+      </c>
+      <c r="P19">
+        <v>1.79402235723613</v>
+      </c>
+      <c r="Q19">
+        <v>0.80748847539076696</v>
+      </c>
+      <c r="R19">
+        <v>2.7698418793470299</v>
+      </c>
+      <c r="S19">
+        <v>2.2314482478087601</v>
+      </c>
+      <c r="T19">
+        <v>1.9582764582786001</v>
+      </c>
+      <c r="U19">
+        <v>3.00617950431515</v>
+      </c>
+      <c r="V19">
+        <v>2.7703798984008201</v>
+      </c>
+      <c r="W19">
+        <v>2.4953526913223598</v>
+      </c>
+      <c r="X19">
+        <v>2.0818006677277001</v>
+      </c>
+      <c r="Y19">
+        <v>2.0687370631902402</v>
+      </c>
+      <c r="Z19">
+        <v>1.6765771270465799</v>
+      </c>
+      <c r="AA19">
+        <v>1.51952697974905</v>
+      </c>
+      <c r="AB19">
+        <v>1.25258682571243</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>2.8193476933689698</v>
+        <v>2.50708235067109</v>
       </c>
       <c r="C21">
-        <v>2.5529482181487202</v>
+        <v>2.24906507298516</v>
       </c>
       <c r="D21">
-        <v>2.30335660606079</v>
+        <v>2.0111048065284698</v>
       </c>
       <c r="E21">
-        <v>1.89946822127341</v>
+        <v>1.63660352369088</v>
       </c>
       <c r="F21">
-        <v>1.5195649145513801</v>
+        <v>1.23998513248855</v>
       </c>
       <c r="G21">
-        <v>1.7610641144441299</v>
+        <v>1.52927184305922</v>
       </c>
       <c r="H21">
-        <v>1.2765054591727301</v>
+        <v>1.04677371030011</v>
       </c>
       <c r="I21">
-        <v>0.66412251177206105</v>
+        <v>0.67064610932740099</v>
       </c>
       <c r="J21">
-        <v>0.38517373930953003</v>
+        <v>0.87928195702033896</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.9081068116819102</v>
+        <v>0.38517373930953003</v>
       </c>
       <c r="M21">
-        <v>2.6662935903134799</v>
+        <v>2.6218890067899201</v>
       </c>
       <c r="N21">
-        <v>2.4198601052648301</v>
+        <v>2.3926301988876602</v>
       </c>
       <c r="O21">
-        <v>1.30140562156808</v>
+        <v>2.1628180587041101</v>
+      </c>
+      <c r="P21">
+        <v>1.8099272629490899</v>
+      </c>
+      <c r="Q21">
+        <v>1.29664153090953</v>
+      </c>
+      <c r="R21">
+        <v>2.32935793297866</v>
+      </c>
+      <c r="S21">
+        <v>1.7929505820971501</v>
+      </c>
+      <c r="T21">
+        <v>1.5216584606480099</v>
+      </c>
+      <c r="U21">
+        <v>2.3373969565587802</v>
+      </c>
+      <c r="V21">
+        <v>2.08293003562116</v>
+      </c>
+      <c r="W21">
+        <v>1.7782031113043599</v>
+      </c>
+      <c r="X21">
+        <v>1.2161869883628</v>
+      </c>
+      <c r="Y21">
+        <v>1.3942548812959501</v>
+      </c>
+      <c r="Z21">
+        <v>1.1021158437494201</v>
+      </c>
+      <c r="AA21">
+        <v>1.0792107868344101</v>
+      </c>
+      <c r="AB21">
+        <v>0.39528193869723699</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
-        <v>0.30894449596674101</v>
+        <v>2.8193476933689698</v>
       </c>
       <c r="C23">
-        <v>0.40809342087926098</v>
+        <v>2.5529482181487202</v>
       </c>
       <c r="D23">
-        <v>0.61133775463041595</v>
+        <v>2.30335660606079</v>
       </c>
       <c r="E23">
-        <v>1.0169119240320501</v>
+        <v>1.89946822127341</v>
       </c>
       <c r="F23">
-        <v>1.3892344316607199</v>
+        <v>1.5195649145513801</v>
       </c>
       <c r="G23">
-        <v>1.1941422624276099</v>
+        <v>1.7610641144441299</v>
       </c>
       <c r="H23">
-        <v>1.64698482735201</v>
+        <v>1.2765054591727301</v>
       </c>
       <c r="I23">
-        <v>2.3926496487401101</v>
+        <v>0.66412251177206105</v>
       </c>
       <c r="J23">
-        <v>2.6218890067899201</v>
+        <v>0.66148579510254601</v>
       </c>
       <c r="K23">
-        <v>2.9081068116819102</v>
+        <v>0.38517373930953003</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.26708009821853101</v>
+        <v>2.9081068116819102</v>
       </c>
       <c r="N23">
-        <v>0.545271026054163</v>
+        <v>2.6662935903134799</v>
       </c>
       <c r="O23">
-        <v>2.1144195118485398</v>
+        <v>2.4198601052648301</v>
+      </c>
+      <c r="P23">
+        <v>2.0263409704606801</v>
+      </c>
+      <c r="Q23">
+        <v>1.30140562156808</v>
+      </c>
+      <c r="R23">
+        <v>2.6845512073667801</v>
+      </c>
+      <c r="S23">
+        <v>2.1425992295654002</v>
+      </c>
+      <c r="T23">
+        <v>1.8668155920138101</v>
+      </c>
+      <c r="U23">
+        <v>2.7222168568264302</v>
+      </c>
+      <c r="V23">
+        <v>2.4680338446922301</v>
+      </c>
+      <c r="W23">
+        <v>2.1632644325850898</v>
+      </c>
+      <c r="X23">
+        <v>1.5586574574390899</v>
+      </c>
+      <c r="Y23">
+        <v>1.41499797709399</v>
+      </c>
+      <c r="Z23">
+        <v>1.4691621171490501</v>
+      </c>
+      <c r="AA23">
+        <v>1.41409861608104</v>
+      </c>
+      <c r="AB23">
+        <v>0.64909639101907002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25">
-        <v>0.42342185529804699</v>
+        <v>0.30894449596674101</v>
       </c>
       <c r="C25">
-        <v>0.31938656449598402</v>
+        <v>0.40809342087926098</v>
       </c>
       <c r="D25">
-        <v>0.408090471268854</v>
+        <v>0.61133775463041595</v>
       </c>
       <c r="E25">
-        <v>0.76750617246888497</v>
+        <v>1.0169119240320501</v>
       </c>
       <c r="F25">
-        <v>1.1534082869364799</v>
+        <v>1.3892344316607199</v>
       </c>
       <c r="G25">
-        <v>0.93396520643761205</v>
+        <v>1.1941422624276099</v>
       </c>
       <c r="H25">
-        <v>1.39682139472515</v>
+        <v>1.64698482735201</v>
       </c>
       <c r="I25">
-        <v>2.1356227373492902</v>
+        <v>2.3926496487401101</v>
       </c>
       <c r="J25">
-        <v>2.3926301988876602</v>
+        <v>2.7777181313430699</v>
       </c>
       <c r="K25">
-        <v>2.6662935903134799</v>
+        <v>2.6218890067899201</v>
       </c>
       <c r="L25">
-        <v>0.26708009821853101</v>
+        <v>2.9081068116819102</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.27819110100952699</v>
+        <v>0.26708009821853101</v>
       </c>
       <c r="O25">
-        <v>1.8473394400473799</v>
+        <v>0.545271026054163</v>
+      </c>
+      <c r="P25">
+        <v>1.01276951148439</v>
+      </c>
+      <c r="Q25">
+        <v>2.1144195118485398</v>
+      </c>
+      <c r="R25">
+        <v>0.91585594300134698</v>
+      </c>
+      <c r="S25">
+        <v>1.05893128231603</v>
+      </c>
+      <c r="T25">
+        <v>1.2226872066775301</v>
+      </c>
+      <c r="U25">
+        <v>1.80091323846416</v>
+      </c>
+      <c r="V25">
+        <v>1.81605186631089</v>
+      </c>
+      <c r="W25">
+        <v>1.89509306709463</v>
+      </c>
+      <c r="X25">
+        <v>2.6072797773218901</v>
+      </c>
+      <c r="Y25">
+        <v>3.7924560252802402</v>
+      </c>
+      <c r="Z25">
+        <v>1.6795880728281001</v>
+      </c>
+      <c r="AA25">
+        <v>1.57268405681478</v>
+      </c>
+      <c r="AB25">
+        <v>2.7953673315322498</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27">
-        <v>0.64655195519009601</v>
+        <v>0.42342185529804699</v>
       </c>
       <c r="C27">
-        <v>0.43150568178276699</v>
+        <v>0.31938656449598402</v>
       </c>
       <c r="D27">
-        <v>0.31957595425572699</v>
+        <v>0.408090471268854</v>
       </c>
       <c r="E27">
-        <v>0.52622915905828005</v>
+        <v>0.76750617246888497</v>
       </c>
       <c r="F27">
-        <v>0.92571463767628204</v>
+        <v>1.1534082869364799</v>
       </c>
       <c r="G27">
-        <v>0.66861851954181595</v>
+        <v>0.93396520643761205</v>
       </c>
       <c r="H27">
-        <v>1.1442040419945501</v>
+        <v>1.39682139472515</v>
       </c>
       <c r="I27">
-        <v>1.8707546538658599</v>
+        <v>2.1356227373492902</v>
       </c>
       <c r="J27">
-        <v>2.1628180587041101</v>
+        <v>2.5159440461831699</v>
       </c>
       <c r="K27">
-        <v>2.4198601052648301</v>
+        <v>2.3926301988876602</v>
       </c>
       <c r="L27">
-        <v>0.545271026054163</v>
+        <v>2.6662935903134799</v>
       </c>
       <c r="M27">
-        <v>0.27819110100952699</v>
+        <v>0.26708009821853101</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1.56914904080879</v>
+        <v>0.27819110100952699</v>
+      </c>
+      <c r="P27">
+        <v>0.74569028057157705</v>
+      </c>
+      <c r="Q27">
+        <v>1.8473394400473799</v>
+      </c>
+      <c r="R27">
+        <v>0.95798674741302603</v>
+      </c>
+      <c r="S27">
+        <v>0.95342538669827903</v>
+      </c>
+      <c r="T27">
+        <v>1.0649178752812301</v>
+      </c>
+      <c r="U27">
+        <v>1.8197102070532301</v>
+      </c>
+      <c r="V27">
+        <v>1.7963596579613601</v>
+      </c>
+      <c r="W27">
+        <v>1.83040099589892</v>
+      </c>
+      <c r="X27">
+        <v>2.46881595319813</v>
+      </c>
+      <c r="Y27">
+        <v>3.6021647982901199</v>
+      </c>
+      <c r="Z27">
+        <v>1.5026027494810601</v>
+      </c>
+      <c r="AA27">
+        <v>1.36714708600874</v>
+      </c>
+      <c r="AB27">
+        <v>2.5866258224814702</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29">
+        <v>0.64655195519009601</v>
+      </c>
+      <c r="C29">
+        <v>0.43150568178276699</v>
+      </c>
+      <c r="D29">
+        <v>0.31957595425572699</v>
+      </c>
+      <c r="E29">
+        <v>0.52622915905828005</v>
+      </c>
+      <c r="F29">
+        <v>0.92571463767628204</v>
+      </c>
+      <c r="G29">
+        <v>0.66861851954181595</v>
+      </c>
+      <c r="H29">
+        <v>1.1442040419945501</v>
+      </c>
+      <c r="I29">
+        <v>1.8707546538658599</v>
+      </c>
+      <c r="J29">
+        <v>2.2445061263089499</v>
+      </c>
+      <c r="K29">
+        <v>2.1628180587041101</v>
+      </c>
+      <c r="L29">
+        <v>2.4198601052648301</v>
+      </c>
+      <c r="M29">
+        <v>0.545271026054163</v>
+      </c>
+      <c r="N29">
+        <v>0.27819110100952699</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.46750380163350902</v>
+      </c>
+      <c r="Q29">
+        <v>1.56914904080879</v>
+      </c>
+      <c r="R29">
+        <v>1.0727751463167401</v>
+      </c>
+      <c r="S29">
+        <v>0.91583234418030901</v>
+      </c>
+      <c r="T29">
+        <v>0.95341408695476304</v>
+      </c>
+      <c r="U29">
+        <v>1.8794481097903999</v>
+      </c>
+      <c r="V29">
+        <v>1.8173905498518601</v>
+      </c>
+      <c r="W29">
+        <v>1.80261539289638</v>
+      </c>
+      <c r="X29">
+        <v>2.34791918020596</v>
+      </c>
+      <c r="Y29">
+        <v>3.4145734994346402</v>
+      </c>
+      <c r="Z29">
+        <v>1.34974841260128</v>
+      </c>
+      <c r="AA29">
+        <v>1.17922461424749</v>
+      </c>
+      <c r="AB29">
+        <v>2.3813135483443002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>1.0816385838017299</v>
+      </c>
+      <c r="C31">
+        <v>0.82368623379690298</v>
+      </c>
+      <c r="D31">
+        <v>0.58708836480694104</v>
+      </c>
+      <c r="E31">
+        <v>0.32111296022553298</v>
+      </c>
+      <c r="F31">
+        <v>0.64346670513368298</v>
+      </c>
+      <c r="G31">
+        <v>0.28752898231080398</v>
+      </c>
+      <c r="H31">
+        <v>0.76335459135977202</v>
+      </c>
+      <c r="I31">
+        <v>1.43848718843791</v>
+      </c>
+      <c r="J31">
+        <v>1.79402235723613</v>
+      </c>
+      <c r="K31">
+        <v>1.8099272629490899</v>
+      </c>
+      <c r="L31">
+        <v>2.0263409704606801</v>
+      </c>
+      <c r="M31">
+        <v>1.01276951148439</v>
+      </c>
+      <c r="N31">
+        <v>0.74569028057157705</v>
+      </c>
+      <c r="O31">
+        <v>0.46750380163350902</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1.10165304885143</v>
+      </c>
+      <c r="R31">
+        <v>1.3774706484873001</v>
+      </c>
+      <c r="S31">
+        <v>1.0370659692791599</v>
+      </c>
+      <c r="T31">
+        <v>0.94109053047230695</v>
+      </c>
+      <c r="U31">
+        <v>2.0650783392874801</v>
+      </c>
+      <c r="V31">
+        <v>1.9471683006748901</v>
+      </c>
+      <c r="W31">
+        <v>1.85490305580855</v>
+      </c>
+      <c r="X31">
+        <v>2.2130280239969098</v>
+      </c>
+      <c r="Y31">
+        <v>3.13266333233127</v>
+      </c>
+      <c r="Z31">
+        <v>1.2024269380247801</v>
+      </c>
+      <c r="AA31">
+        <v>0.97025559435084596</v>
+      </c>
+      <c r="AB31">
+        <v>2.07764649081652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
         <v>2.1600412504712398</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>1.88739538571954</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>1.6248127041562901</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>1.19054208331887</v>
       </c>
-      <c r="F29">
+      <c r="F33">
         <v>1.04402230725486</v>
       </c>
-      <c r="G29">
+      <c r="G33">
         <v>0.97418427829152898</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>0.76896334617315498</v>
       </c>
-      <c r="I29">
+      <c r="I33">
         <v>0.64624847278532505</v>
       </c>
-      <c r="J29">
+      <c r="J33">
+        <v>0.80748847539076696</v>
+      </c>
+      <c r="K33">
         <v>1.29664153090953</v>
       </c>
-      <c r="K29">
+      <c r="L33">
         <v>1.30140562156808</v>
       </c>
-      <c r="L29">
+      <c r="M33">
         <v>2.1144195118485398</v>
       </c>
-      <c r="M29">
+      <c r="N33">
         <v>1.8473394400473799</v>
       </c>
-      <c r="N29">
+      <c r="O33">
         <v>1.56914904080879</v>
       </c>
-      <c r="O29">
+      <c r="P33">
+        <v>1.10165304885143</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>2.31764020419718</v>
+      </c>
+      <c r="S33">
+        <v>1.8297917072677701</v>
+      </c>
+      <c r="T33">
+        <v>1.5954131598688199</v>
+      </c>
+      <c r="U33">
+        <v>2.77331869874196</v>
+      </c>
+      <c r="V33">
+        <v>2.5776114395197101</v>
+      </c>
+      <c r="W33">
+        <v>2.36486158129442</v>
+      </c>
+      <c r="X33">
+        <v>2.2679070005273099</v>
+      </c>
+      <c r="Y33">
+        <v>2.6745756246974701</v>
+      </c>
+      <c r="Z33">
+        <v>1.5067862170395201</v>
+      </c>
+      <c r="AA33">
+        <v>1.2638635659689399</v>
+      </c>
+      <c r="AB33">
+        <v>1.68195895926376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>0.60775815196383898</v>
+      </c>
+      <c r="C35">
+        <v>0.654290156031621</v>
+      </c>
+      <c r="D35">
+        <v>0.80181721015255603</v>
+      </c>
+      <c r="E35">
+        <v>1.1499941677679599</v>
+      </c>
+      <c r="F35">
+        <v>1.31058683042372</v>
+      </c>
+      <c r="G35">
+        <v>1.36433159410481</v>
+      </c>
+      <c r="H35">
+        <v>1.61966979282958</v>
+      </c>
+      <c r="I35">
+        <v>2.3461559172925899</v>
+      </c>
+      <c r="J35">
+        <v>2.7698418793470299</v>
+      </c>
+      <c r="K35">
+        <v>2.32935793297866</v>
+      </c>
+      <c r="L35">
+        <v>2.6845512073667801</v>
+      </c>
+      <c r="M35">
+        <v>0.91585594300134698</v>
+      </c>
+      <c r="N35">
+        <v>0.95798674741302603</v>
+      </c>
+      <c r="O35">
+        <v>1.0727751463167401</v>
+      </c>
+      <c r="P35">
+        <v>1.3774706484873001</v>
+      </c>
+      <c r="Q35">
+        <v>2.31764020419718</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0.54527102517923898</v>
+      </c>
+      <c r="T35">
+        <v>0.82346206408853395</v>
+      </c>
+      <c r="U35">
+        <v>0.88539254915871701</v>
+      </c>
+      <c r="V35">
+        <v>0.92435173417528005</v>
+      </c>
+      <c r="W35">
+        <v>1.0702093713351499</v>
+      </c>
+      <c r="X35">
+        <v>1.9257715307347101</v>
+      </c>
+      <c r="Y35">
+        <v>3.2483855575463001</v>
+      </c>
+      <c r="Z35">
+        <v>1.2324714907957699</v>
+      </c>
+      <c r="AA35">
+        <v>1.27914043932044</v>
+      </c>
+      <c r="AB35">
+        <v>2.3761140909306699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>0.82291561062034302</v>
+      </c>
+      <c r="C37">
+        <v>0.65802008776554299</v>
+      </c>
+      <c r="D37">
+        <v>0.59711278932803302</v>
+      </c>
+      <c r="E37">
+        <v>0.74197814850087696</v>
+      </c>
+      <c r="F37">
+        <v>0.79363968761216297</v>
+      </c>
+      <c r="G37">
+        <v>0.93150939464737803</v>
+      </c>
+      <c r="H37">
+        <v>1.0978260217678699</v>
+      </c>
+      <c r="I37">
+        <v>1.8068342472397301</v>
+      </c>
+      <c r="J37">
+        <v>2.2314482478087601</v>
+      </c>
+      <c r="K37">
+        <v>1.7929505820971501</v>
+      </c>
+      <c r="L37">
+        <v>2.1425992295654002</v>
+      </c>
+      <c r="M37">
+        <v>1.05893128231603</v>
+      </c>
+      <c r="N37">
+        <v>0.95342538669827903</v>
+      </c>
+      <c r="O37">
+        <v>0.91583234418030901</v>
+      </c>
+      <c r="P37">
+        <v>1.0370659692791599</v>
+      </c>
+      <c r="Q37">
+        <v>1.8297917072677701</v>
+      </c>
+      <c r="R37">
+        <v>0.54527102517923898</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0.278191095220989</v>
+      </c>
+      <c r="U37">
+        <v>1.02871985268318</v>
+      </c>
+      <c r="V37">
+        <v>0.91902002233178604</v>
+      </c>
+      <c r="W37">
+        <v>0.88808814409205705</v>
+      </c>
+      <c r="X37">
+        <v>1.55201087513903</v>
+      </c>
+      <c r="Y37">
+        <v>2.7953431623999401</v>
+      </c>
+      <c r="Z37">
+        <v>0.71068243918144502</v>
+      </c>
+      <c r="AA37">
+        <v>0.73396372728516701</v>
+      </c>
+      <c r="AB37">
+        <v>1.8675641385382999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>1.03130041432297</v>
+      </c>
+      <c r="C39">
+        <v>0.81536932996387301</v>
+      </c>
+      <c r="D39">
+        <v>0.66316058873639405</v>
+      </c>
+      <c r="E39">
+        <v>0.62131329154396897</v>
+      </c>
+      <c r="F39">
+        <v>0.55146589120612499</v>
+      </c>
+      <c r="G39">
+        <v>0.76818935202648497</v>
+      </c>
+      <c r="H39">
+        <v>0.84318867298000999</v>
+      </c>
+      <c r="I39">
+        <v>1.5333436406830201</v>
+      </c>
+      <c r="J39">
+        <v>1.9582764582786001</v>
+      </c>
+      <c r="K39">
+        <v>1.5216584606480099</v>
+      </c>
+      <c r="L39">
+        <v>1.8668155920138101</v>
+      </c>
+      <c r="M39">
+        <v>1.2226872066775301</v>
+      </c>
+      <c r="N39">
+        <v>1.0649178752812301</v>
+      </c>
+      <c r="O39">
+        <v>0.95341408695476304</v>
+      </c>
+      <c r="P39">
+        <v>0.94109053047230695</v>
+      </c>
+      <c r="Q39">
+        <v>1.5954131598688199</v>
+      </c>
+      <c r="R39">
+        <v>0.82346206408853395</v>
+      </c>
+      <c r="S39">
+        <v>0.278191095220989</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1.1945403670894501</v>
+      </c>
+      <c r="V39">
+        <v>1.0335764475468201</v>
+      </c>
+      <c r="W39">
+        <v>0.91402255073486405</v>
+      </c>
+      <c r="X39">
+        <v>1.4050269776456601</v>
+      </c>
+      <c r="Y39">
+        <v>2.5778605691860399</v>
+      </c>
+      <c r="Z39">
+        <v>0.46555667801586498</v>
+      </c>
+      <c r="AA39">
+        <v>0.455899199242704</v>
+      </c>
+      <c r="AB39">
+        <v>1.6172495499099999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>1.49313929716576</v>
+      </c>
+      <c r="C41">
+        <v>1.5024165341515101</v>
+      </c>
+      <c r="D41">
+        <v>1.5688172566979599</v>
+      </c>
+      <c r="E41">
+        <v>1.7688683425614899</v>
+      </c>
+      <c r="F41">
+        <v>1.73789686642144</v>
+      </c>
+      <c r="G41">
+        <v>1.94834498025023</v>
+      </c>
+      <c r="H41">
+        <v>2.00605833218619</v>
+      </c>
+      <c r="I41">
+        <v>2.5936824145437201</v>
+      </c>
+      <c r="J41">
+        <v>3.00617950431515</v>
+      </c>
+      <c r="K41">
+        <v>2.3373969565587802</v>
+      </c>
+      <c r="L41">
+        <v>2.7222168568264302</v>
+      </c>
+      <c r="M41">
+        <v>1.80091323846416</v>
+      </c>
+      <c r="N41">
+        <v>1.8197102070532301</v>
+      </c>
+      <c r="O41">
+        <v>1.8794481097903999</v>
+      </c>
+      <c r="P41">
+        <v>2.0650783392874801</v>
+      </c>
+      <c r="Q41">
+        <v>2.77331869874196</v>
+      </c>
+      <c r="R41">
+        <v>0.88539254915871701</v>
+      </c>
+      <c r="S41">
+        <v>1.02871985268318</v>
+      </c>
+      <c r="T41">
+        <v>1.1945403670894501</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0.26062267115037302</v>
+      </c>
+      <c r="W41">
+        <v>0.57860552389761599</v>
+      </c>
+      <c r="X41">
+        <v>1.48901150690869</v>
+      </c>
+      <c r="Y41">
+        <v>2.8729489587311199</v>
+      </c>
+      <c r="Z41">
+        <v>1.33153837977669</v>
+      </c>
+      <c r="AA41">
+        <v>1.52784993910164</v>
+      </c>
+      <c r="AB41">
+        <v>2.2340674818112198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>1.5163189908692201</v>
+      </c>
+      <c r="C43">
+        <v>1.47727854412587</v>
+      </c>
+      <c r="D43">
+        <v>1.49902998748738</v>
+      </c>
+      <c r="E43">
+        <v>1.63789623237402</v>
+      </c>
+      <c r="F43">
+        <v>1.55749870277063</v>
+      </c>
+      <c r="G43">
+        <v>1.8008771355561499</v>
+      </c>
+      <c r="H43">
+        <v>1.8086813088915299</v>
+      </c>
+      <c r="I43">
+        <v>2.3627006589146302</v>
+      </c>
+      <c r="J43">
+        <v>2.7703798984008201</v>
+      </c>
+      <c r="K43">
+        <v>2.08293003562116</v>
+      </c>
+      <c r="L43">
+        <v>2.4680338446922301</v>
+      </c>
+      <c r="M43">
+        <v>1.81605186631089</v>
+      </c>
+      <c r="N43">
+        <v>1.7963596579613601</v>
+      </c>
+      <c r="O43">
+        <v>1.8173905498518601</v>
+      </c>
+      <c r="P43">
+        <v>1.9471683006748901</v>
+      </c>
+      <c r="Q43">
+        <v>2.5776114395197101</v>
+      </c>
+      <c r="R43">
+        <v>0.92435173417528005</v>
+      </c>
+      <c r="S43">
+        <v>0.91902002233178604</v>
+      </c>
+      <c r="T43">
+        <v>1.0335764475468201</v>
+      </c>
+      <c r="U43">
+        <v>0.26062267115037302</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.31808163464359801</v>
+      </c>
+      <c r="X43">
+        <v>1.23945545225625</v>
+      </c>
+      <c r="Y43">
+        <v>2.6248145634703701</v>
+      </c>
+      <c r="Z43">
+        <v>1.10428360358512</v>
+      </c>
+      <c r="AA43">
+        <v>1.31849656471915</v>
+      </c>
+      <c r="AB43">
+        <v>1.97366030872579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>1.61356389227742</v>
+      </c>
+      <c r="C45">
+        <v>1.51983803023063</v>
+      </c>
+      <c r="D45">
+        <v>1.48484784714244</v>
+      </c>
+      <c r="E45">
+        <v>1.5353235075551099</v>
+      </c>
+      <c r="F45">
+        <v>1.38303047744075</v>
+      </c>
+      <c r="G45">
+        <v>1.67011313984552</v>
+      </c>
+      <c r="H45">
+        <v>1.60199566133848</v>
+      </c>
+      <c r="I45">
+        <v>2.0969446330285999</v>
+      </c>
+      <c r="J45">
+        <v>2.4953526913223598</v>
+      </c>
+      <c r="K45">
+        <v>1.7782031113043599</v>
+      </c>
+      <c r="L45">
+        <v>2.1632644325850898</v>
+      </c>
+      <c r="M45">
+        <v>1.89509306709463</v>
+      </c>
+      <c r="N45">
+        <v>1.83040099589892</v>
+      </c>
+      <c r="O45">
+        <v>1.80261539289638</v>
+      </c>
+      <c r="P45">
+        <v>1.85490305580855</v>
+      </c>
+      <c r="Q45">
+        <v>2.36486158129442</v>
+      </c>
+      <c r="R45">
+        <v>1.0702093713351499</v>
+      </c>
+      <c r="S45">
+        <v>0.88808814409205705</v>
+      </c>
+      <c r="T45">
+        <v>0.91402255073486405</v>
+      </c>
+      <c r="U45">
+        <v>0.57860552389761599</v>
+      </c>
+      <c r="V45">
+        <v>0.31808163464359801</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0.93838680229679505</v>
+      </c>
+      <c r="Y45">
+        <v>2.3216457121693401</v>
+      </c>
+      <c r="Z45">
+        <v>0.86158917232452803</v>
+      </c>
+      <c r="AA45">
+        <v>1.1025527424905499</v>
+      </c>
+      <c r="AB45">
+        <v>1.6568033750169799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>2.3719015965131498</v>
+      </c>
+      <c r="C47">
+        <v>2.2008707096865501</v>
+      </c>
+      <c r="D47">
+        <v>2.06805571271931</v>
+      </c>
+      <c r="E47">
+        <v>1.9136098505703301</v>
+      </c>
+      <c r="F47">
+        <v>1.58567010864497</v>
+      </c>
+      <c r="G47">
+        <v>1.94897709708948</v>
+      </c>
+      <c r="H47">
+        <v>1.64002083536344</v>
+      </c>
+      <c r="I47">
+        <v>1.7767593382218001</v>
+      </c>
+      <c r="J47">
+        <v>2.0818006677277001</v>
+      </c>
+      <c r="K47">
+        <v>1.2161869883628</v>
+      </c>
+      <c r="L47">
+        <v>1.5586574574390899</v>
+      </c>
+      <c r="M47">
+        <v>2.6072797773218901</v>
+      </c>
+      <c r="N47">
+        <v>2.46881595319813</v>
+      </c>
+      <c r="O47">
+        <v>2.34791918020596</v>
+      </c>
+      <c r="P47">
+        <v>2.2130280239969098</v>
+      </c>
+      <c r="Q47">
+        <v>2.2679070005273099</v>
+      </c>
+      <c r="R47">
+        <v>1.9257715307347101</v>
+      </c>
+      <c r="S47">
+        <v>1.55201087513903</v>
+      </c>
+      <c r="T47">
+        <v>1.4050269776456601</v>
+      </c>
+      <c r="U47">
+        <v>1.48901150690869</v>
+      </c>
+      <c r="V47">
+        <v>1.23945545225625</v>
+      </c>
+      <c r="W47">
+        <v>0.93838680229679505</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1.3853805868492901</v>
+      </c>
+      <c r="Z47">
+        <v>1.0142097598116999</v>
+      </c>
+      <c r="AA47">
+        <v>1.24631895175464</v>
+      </c>
+      <c r="AB47">
+        <v>0.92776959359297795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>3.6069966202652601</v>
+      </c>
+      <c r="C49">
+        <v>3.3891682071710001</v>
+      </c>
+      <c r="D49">
+        <v>3.19612438207538</v>
+      </c>
+      <c r="E49">
+        <v>2.9032937368817699</v>
+      </c>
+      <c r="F49">
+        <v>2.5064068650488398</v>
+      </c>
+      <c r="G49">
+        <v>2.84517343005197</v>
+      </c>
+      <c r="H49">
+        <v>2.3899121836519899</v>
+      </c>
+      <c r="I49">
+        <v>2.0301061961157001</v>
+      </c>
+      <c r="J49">
+        <v>2.0687370631902402</v>
+      </c>
+      <c r="K49">
+        <v>1.3942548812959501</v>
+      </c>
+      <c r="L49">
+        <v>1.41499797709399</v>
+      </c>
+      <c r="M49">
+        <v>3.7924560252802402</v>
+      </c>
+      <c r="N49">
+        <v>3.6021647982901199</v>
+      </c>
+      <c r="O49">
+        <v>3.4145734994346402</v>
+      </c>
+      <c r="P49">
+        <v>3.13266333233127</v>
+      </c>
+      <c r="Q49">
+        <v>2.6745756246974701</v>
+      </c>
+      <c r="R49">
+        <v>3.2483855575463001</v>
+      </c>
+      <c r="S49">
+        <v>2.7953431623999401</v>
+      </c>
+      <c r="T49">
+        <v>2.5778605691860399</v>
+      </c>
+      <c r="U49">
+        <v>2.8729489587311199</v>
+      </c>
+      <c r="V49">
+        <v>2.6248145634703701</v>
+      </c>
+      <c r="W49">
+        <v>2.3216457121693401</v>
+      </c>
+      <c r="X49">
+        <v>1.3853805868492901</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>2.1144543625163701</v>
+      </c>
+      <c r="AA49">
+        <v>2.2378347270673999</v>
+      </c>
+      <c r="AB49">
+        <v>1.0588489759624899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>1.4968397834398499</v>
+      </c>
+      <c r="C51">
+        <v>1.2749100980819601</v>
+      </c>
+      <c r="D51">
+        <v>1.0945617743093701</v>
+      </c>
+      <c r="E51">
+        <v>0.89943583015838902</v>
+      </c>
+      <c r="F51">
+        <v>0.59781721798006804</v>
+      </c>
+      <c r="G51">
+        <v>0.949101159923191</v>
+      </c>
+      <c r="H51">
+        <v>0.75407346996917801</v>
+      </c>
+      <c r="I51">
+        <v>1.2621623529626</v>
+      </c>
+      <c r="J51">
+        <v>1.6765771270465799</v>
+      </c>
+      <c r="K51">
+        <v>1.1021158437494201</v>
+      </c>
+      <c r="L51">
+        <v>1.4691621171490501</v>
+      </c>
+      <c r="M51">
+        <v>1.6795880728281001</v>
+      </c>
+      <c r="N51">
+        <v>1.5026027494810601</v>
+      </c>
+      <c r="O51">
+        <v>1.34974841260128</v>
+      </c>
+      <c r="P51">
+        <v>1.2024269380247801</v>
+      </c>
+      <c r="Q51">
+        <v>1.5067862170395201</v>
+      </c>
+      <c r="R51">
+        <v>1.2324714907957699</v>
+      </c>
+      <c r="S51">
+        <v>0.71068243918144502</v>
+      </c>
+      <c r="T51">
+        <v>0.46555667801586498</v>
+      </c>
+      <c r="U51">
+        <v>1.33153837977669</v>
+      </c>
+      <c r="V51">
+        <v>1.10428360358512</v>
+      </c>
+      <c r="W51">
+        <v>0.86158917232452803</v>
+      </c>
+      <c r="X51">
+        <v>1.0142097598116999</v>
+      </c>
+      <c r="Y51">
+        <v>2.1144543625163701</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0.26406428240781799</v>
+      </c>
+      <c r="AB51">
+        <v>1.1573252770122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>1.4325153172709799</v>
+      </c>
+      <c r="C53">
+        <v>1.1831645462670599</v>
+      </c>
+      <c r="D53">
+        <v>0.96514415732966996</v>
+      </c>
+      <c r="E53">
+        <v>0.68716920169865803</v>
+      </c>
+      <c r="F53">
+        <v>0.341387632585814</v>
+      </c>
+      <c r="G53">
+        <v>0.70269947889839601</v>
+      </c>
+      <c r="H53">
+        <v>0.49965082568737201</v>
+      </c>
+      <c r="I53">
+        <v>1.0956246626255599</v>
+      </c>
+      <c r="J53">
+        <v>1.51952697974905</v>
+      </c>
+      <c r="K53">
+        <v>1.0792107868344101</v>
+      </c>
+      <c r="L53">
+        <v>1.41409861608104</v>
+      </c>
+      <c r="M53">
+        <v>1.57268405681478</v>
+      </c>
+      <c r="N53">
+        <v>1.36714708600874</v>
+      </c>
+      <c r="O53">
+        <v>1.17922461424749</v>
+      </c>
+      <c r="P53">
+        <v>0.97025559435084596</v>
+      </c>
+      <c r="Q53">
+        <v>1.2638635659689399</v>
+      </c>
+      <c r="R53">
+        <v>1.27914043932044</v>
+      </c>
+      <c r="S53">
+        <v>0.73396372728516701</v>
+      </c>
+      <c r="T53">
+        <v>0.455899199242704</v>
+      </c>
+      <c r="U53">
+        <v>1.52784993910164</v>
+      </c>
+      <c r="V53">
+        <v>1.31849656471915</v>
+      </c>
+      <c r="W53">
+        <v>1.1025527424905499</v>
+      </c>
+      <c r="X53">
+        <v>1.24631895175464</v>
+      </c>
+      <c r="Y53">
+        <v>2.2378347270673999</v>
+      </c>
+      <c r="Z53">
+        <v>0.26406428240781799</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>1.22276537646044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>2.6422120510390701</v>
+      </c>
+      <c r="C55">
+        <v>2.40263429990453</v>
+      </c>
+      <c r="D55">
+        <v>2.1874827306426501</v>
+      </c>
+      <c r="E55">
+        <v>1.8615686897558701</v>
+      </c>
+      <c r="F55">
+        <v>1.4611278786820401</v>
+      </c>
+      <c r="G55">
+        <v>1.7905512451952099</v>
+      </c>
+      <c r="H55">
+        <v>1.33108581921074</v>
+      </c>
+      <c r="I55">
+        <v>1.0650410187113799</v>
+      </c>
+      <c r="J55">
+        <v>1.25258682571243</v>
+      </c>
+      <c r="K55">
+        <v>0.39528193869723699</v>
+      </c>
+      <c r="L55">
+        <v>0.64909639101907002</v>
+      </c>
+      <c r="M55">
+        <v>2.7953673315322498</v>
+      </c>
+      <c r="N55">
+        <v>2.5866258224814702</v>
+      </c>
+      <c r="O55">
+        <v>2.3813135483443002</v>
+      </c>
+      <c r="P55">
+        <v>2.07764649081652</v>
+      </c>
+      <c r="Q55">
+        <v>1.68195895926376</v>
+      </c>
+      <c r="R55">
+        <v>2.3761140909306699</v>
+      </c>
+      <c r="S55">
+        <v>1.8675641385382999</v>
+      </c>
+      <c r="T55">
+        <v>1.6172495499099999</v>
+      </c>
+      <c r="U55">
+        <v>2.2340674818112198</v>
+      </c>
+      <c r="V55">
+        <v>1.97366030872579</v>
+      </c>
+      <c r="W55">
+        <v>1.6568033750169799</v>
+      </c>
+      <c r="X55">
+        <v>0.92776959359297795</v>
+      </c>
+      <c r="Y55">
+        <v>1.0588489759624899</v>
+      </c>
+      <c r="Z55">
+        <v>1.1573252770122</v>
+      </c>
+      <c r="AA55">
+        <v>1.22276537646044</v>
+      </c>
+      <c r="AB55">
         <v>0</v>
       </c>
     </row>
